--- a/results/tables/Table1_balance.xlsx
+++ b/results/tables/Table1_balance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>(1)</t>
   </si>
@@ -57,25 +57,13 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>wtp_wins</t>
-  </si>
-  <si>
-    <t>rel_val</t>
-  </si>
-  <si>
-    <t>avg_relational</t>
-  </si>
-  <si>
-    <t>allocation_percent_wins</t>
+    <t>567</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>1,108</t>
   </si>
   <si>
     <t>atoll_tie</t>
@@ -90,332 +78,197 @@
     <t>single</t>
   </si>
   <si>
+    <t>edu1</t>
+  </si>
+  <si>
+    <t>edu2</t>
+  </si>
+  <si>
+    <t>edu3</t>
+  </si>
+  <si>
+    <t>hh_member</t>
+  </si>
+  <si>
     <t>hh_income_average</t>
   </si>
   <si>
-    <t>ln_income</t>
-  </si>
-  <si>
-    <t>edu1</t>
-  </si>
-  <si>
-    <t>edu2</t>
-  </si>
-  <si>
-    <t>edu3</t>
-  </si>
-  <si>
-    <t>67.12</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>2.57</t>
-  </si>
-  <si>
-    <t>9.56</t>
+    <t>wealth_pca</t>
   </si>
   <si>
     <t>0.29</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>35.47</t>
-  </si>
-  <si>
-    <t>0.36</t>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>6.12</t>
   </si>
   <si>
     <t>5454.52</t>
   </si>
   <si>
-    <t>5.54</t>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>13.19</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>47992.75</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>36.69</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>3365.21</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>11.94</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>4002.61</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-2089.31</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>2495.93</t>
   </si>
   <si>
     <t>0.12</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>64.01</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>7.81</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>12.11</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>47992.75</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>67.23</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>35.79</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>3365.21</t>
-  </si>
-  <si>
-    <t>5.93</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>61.74</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>7.87</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>11.24</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>4002.61</t>
-  </si>
-  <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-2089.31</t>
-  </si>
-  <si>
-    <t>0.39*</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>2495.93</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="141">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="120">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -905,7 +758,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="141">
+  <borders count="120">
     <border>
       <left/>
       <right/>
@@ -1280,27 +1133,6 @@
     <border>
       <left style="none"/>
       <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal style="none"/>
@@ -1344,132 +1176,6 @@
       <left style="none"/>
       <right style="none"/>
       <top style="thin"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
@@ -1897,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2112,15 +1818,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2372,90 +2078,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2468,7 +2090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2519,317 +2141,248 @@
       <c r="A3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>93</v>
+      <c r="B3" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>94</v>
+      <c r="B4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>95</v>
+      <c r="B5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>96</v>
+      <c r="B6" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>97</v>
+      <c r="B7" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>97</v>
+      <c r="B8" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="95" t="s">
+      <c r="B9" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="98" t="s">
-        <v>98</v>
+      <c r="F9" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>99</v>
+      <c r="F10" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="107" t="s">
+      <c r="B11" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="110" t="s">
-        <v>100</v>
+      <c r="F11" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="113" t="s">
+      <c r="B12" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="116" t="s">
-        <v>101</v>
+      <c r="F12" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="113" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="120" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="134" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="135" t="s">
+      <c r="B13" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="137" t="s">
+      <c r="C13" s="115"/>
+      <c r="D13" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="140"/>
+      <c r="G13" s="119"/>
     </row>
   </sheetData>
 </worksheet>
